--- a/catalogo2.xlsx
+++ b/catalogo2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\O830601\Documents\Analisis Carteras\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CCD27FA2-0DD3-4166-9878-FDBB7BEC5FC3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{04A1DB9F-ABCE-45D3-99CD-21C6951AF913}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-51720" yWindow="990" windowWidth="51840" windowHeight="21240" xr2:uid="{73F9D008-079A-45D1-9B22-3994DC30822A}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="505" uniqueCount="111">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="585" uniqueCount="140">
   <si>
     <t>AGG</t>
   </si>
@@ -366,6 +366,93 @@
   </si>
   <si>
     <t>FLOA</t>
+  </si>
+  <si>
+    <t>HSBCDOL</t>
+  </si>
+  <si>
+    <t>BNF</t>
+  </si>
+  <si>
+    <t>Acciones de Sociedades de Inversion</t>
+  </si>
+  <si>
+    <t>NTEDLS+</t>
+  </si>
+  <si>
+    <t>FF</t>
+  </si>
+  <si>
+    <t>PRGLOB</t>
+  </si>
+  <si>
+    <t>FFR</t>
+  </si>
+  <si>
+    <t>SCOTDL+</t>
+  </si>
+  <si>
+    <t>C1E</t>
+  </si>
+  <si>
+    <t>SCOTDOL</t>
+  </si>
+  <si>
+    <t>SURUSD</t>
+  </si>
+  <si>
+    <t>BOE</t>
+  </si>
+  <si>
+    <t>PRINHYD</t>
+  </si>
+  <si>
+    <t>FFX</t>
+  </si>
+  <si>
+    <t>Acciones de Sociedades de Inversion de Instrumentos de Deuda</t>
+  </si>
+  <si>
+    <t>NTEINT+</t>
+  </si>
+  <si>
+    <t>Mercado de Capitales Extranjero</t>
+  </si>
+  <si>
+    <t>Renta Variable Internacional</t>
+  </si>
+  <si>
+    <t>NTEUSA</t>
+  </si>
+  <si>
+    <t>NTEUSA+</t>
+  </si>
+  <si>
+    <t>SCOTGLO</t>
+  </si>
+  <si>
+    <t>SURGLOB</t>
+  </si>
+  <si>
+    <t>BOE0</t>
+  </si>
+  <si>
+    <t>BLKINT1</t>
+  </si>
+  <si>
+    <t>M0-A</t>
+  </si>
+  <si>
+    <t>FT-GLOB</t>
+  </si>
+  <si>
+    <t>BE</t>
+  </si>
+  <si>
+    <t>PEMERGE</t>
+  </si>
+  <si>
+    <t>PRINFUS</t>
   </si>
 </sst>
 </file>
@@ -750,10 +837,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A8A281E5-4349-493B-BC18-08FC9C71D1AC}">
-  <dimension ref="A1:E101"/>
+  <dimension ref="A1:E117"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A61" workbookViewId="0">
-      <selection activeCell="D103" sqref="D103"/>
+    <sheetView tabSelected="1" topLeftCell="A67" workbookViewId="0">
+      <selection activeCell="B105" sqref="B105"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2475,6 +2562,278 @@
         <v>4</v>
       </c>
     </row>
+    <row r="102" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A102" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="B102" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="C102" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="D102" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E102" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="103" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A103" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="B103" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="C103" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="D103" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E103" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="104" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A104" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="B104" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="C104" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="D104" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E104" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="105" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A105" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="B105" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="C105" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="D105" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E105" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="106" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A106" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="B106" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="C106" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="D106" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E106" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="107" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A107" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="B107" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="C107" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="D107" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E107" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="108" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A108" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="B108" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="C108" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="D108" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E108" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="109" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A109" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="B109" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="C109" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="D109" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="E109" s="1" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="110" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A110" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="B110" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="C110" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="D110" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="E110" s="1" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="111" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A111" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="B111" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="C111" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="D111" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="E111" s="1" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="112" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A112" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="B112" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="C112" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="D112" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="E112" s="1" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="113" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A113" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="B113" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="C113" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="D113" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="E113" s="1" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="114" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A114" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="B114" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="C114" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="D114" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="E114" s="1" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="115" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A115" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="B115" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="C115" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="D115" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="E115" s="1" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="116" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A116" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="B116" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="C116" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="D116" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="E116" s="1" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="117" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A117" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="B117" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="C117" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="D117" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="E117" s="1" t="s">
+        <v>128</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/catalogo2.xlsx
+++ b/catalogo2.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23127"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\O830601\Documents\Analisis Carteras\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\192.168.105.8\Backup_Prin\Analisis Carteras\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{04A1DB9F-ABCE-45D3-99CD-21C6951AF913}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{47F4EBDF-63D1-46AA-8005-DC3DCBA58463}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-51720" yWindow="990" windowWidth="51840" windowHeight="21240" xr2:uid="{73F9D008-079A-45D1-9B22-3994DC30822A}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="585" uniqueCount="140">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="515" uniqueCount="113">
   <si>
     <t>AGG</t>
   </si>
@@ -368,91 +368,10 @@
     <t>FLOA</t>
   </si>
   <si>
-    <t>HSBCDOL</t>
-  </si>
-  <si>
-    <t>BNF</t>
-  </si>
-  <si>
-    <t>Acciones de Sociedades de Inversion</t>
-  </si>
-  <si>
-    <t>NTEDLS+</t>
-  </si>
-  <si>
-    <t>FF</t>
-  </si>
-  <si>
-    <t>PRGLOB</t>
-  </si>
-  <si>
-    <t>FFR</t>
-  </si>
-  <si>
-    <t>SCOTDL+</t>
-  </si>
-  <si>
-    <t>C1E</t>
-  </si>
-  <si>
-    <t>SCOTDOL</t>
-  </si>
-  <si>
-    <t>SURUSD</t>
-  </si>
-  <si>
-    <t>BOE</t>
-  </si>
-  <si>
-    <t>PRINHYD</t>
-  </si>
-  <si>
-    <t>FFX</t>
-  </si>
-  <si>
-    <t>Acciones de Sociedades de Inversion de Instrumentos de Deuda</t>
-  </si>
-  <si>
-    <t>NTEINT+</t>
-  </si>
-  <si>
-    <t>Mercado de Capitales Extranjero</t>
-  </si>
-  <si>
-    <t>Renta Variable Internacional</t>
-  </si>
-  <si>
-    <t>NTEUSA</t>
-  </si>
-  <si>
-    <t>NTEUSA+</t>
-  </si>
-  <si>
-    <t>SCOTGLO</t>
-  </si>
-  <si>
-    <t>SURGLOB</t>
-  </si>
-  <si>
-    <t>BOE0</t>
-  </si>
-  <si>
-    <t>BLKINT1</t>
-  </si>
-  <si>
-    <t>M0-A</t>
-  </si>
-  <si>
-    <t>FT-GLOB</t>
-  </si>
-  <si>
-    <t>BE</t>
-  </si>
-  <si>
-    <t>PEMERGE</t>
-  </si>
-  <si>
-    <t>PRINFUS</t>
+    <t>SDHMX</t>
+  </si>
+  <si>
+    <t>VMSTX</t>
   </si>
 </sst>
 </file>
@@ -837,10 +756,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A8A281E5-4349-493B-BC18-08FC9C71D1AC}">
-  <dimension ref="A1:E117"/>
+  <dimension ref="A1:E103"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A67" workbookViewId="0">
-      <selection activeCell="B105" sqref="B105"/>
+    <sheetView tabSelected="1" topLeftCell="A48" workbookViewId="0">
+      <selection activeCell="C71" sqref="C71"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2567,10 +2486,10 @@
         <v>111</v>
       </c>
       <c r="B102" s="1" t="s">
-        <v>112</v>
+        <v>6</v>
       </c>
       <c r="C102" s="1" t="s">
-        <v>113</v>
+        <v>2</v>
       </c>
       <c r="D102" s="1" t="s">
         <v>3</v>
@@ -2581,257 +2500,19 @@
     </row>
     <row r="103" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A103" s="1" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="B103" s="1" t="s">
-        <v>115</v>
+        <v>6</v>
       </c>
       <c r="C103" s="1" t="s">
-        <v>113</v>
+        <v>2</v>
       </c>
       <c r="D103" s="1" t="s">
         <v>3</v>
       </c>
       <c r="E103" s="1" t="s">
         <v>4</v>
-      </c>
-    </row>
-    <row r="104" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A104" s="1" t="s">
-        <v>116</v>
-      </c>
-      <c r="B104" s="1" t="s">
-        <v>117</v>
-      </c>
-      <c r="C104" s="1" t="s">
-        <v>113</v>
-      </c>
-      <c r="D104" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E104" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="105" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A105" s="1" t="s">
-        <v>118</v>
-      </c>
-      <c r="B105" s="1" t="s">
-        <v>119</v>
-      </c>
-      <c r="C105" s="1" t="s">
-        <v>113</v>
-      </c>
-      <c r="D105" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E105" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="106" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A106" s="1" t="s">
-        <v>120</v>
-      </c>
-      <c r="B106" s="1" t="s">
-        <v>119</v>
-      </c>
-      <c r="C106" s="1" t="s">
-        <v>113</v>
-      </c>
-      <c r="D106" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E106" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="107" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A107" s="1" t="s">
-        <v>121</v>
-      </c>
-      <c r="B107" s="1" t="s">
-        <v>122</v>
-      </c>
-      <c r="C107" s="1" t="s">
-        <v>113</v>
-      </c>
-      <c r="D107" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E107" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="108" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A108" s="1" t="s">
-        <v>123</v>
-      </c>
-      <c r="B108" s="1" t="s">
-        <v>124</v>
-      </c>
-      <c r="C108" s="1" t="s">
-        <v>125</v>
-      </c>
-      <c r="D108" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E108" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="109" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A109" s="1" t="s">
-        <v>126</v>
-      </c>
-      <c r="B109" s="1" t="s">
-        <v>115</v>
-      </c>
-      <c r="C109" s="1" t="s">
-        <v>113</v>
-      </c>
-      <c r="D109" s="1" t="s">
-        <v>127</v>
-      </c>
-      <c r="E109" s="1" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="110" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A110" s="1" t="s">
-        <v>129</v>
-      </c>
-      <c r="B110" s="1" t="s">
-        <v>115</v>
-      </c>
-      <c r="C110" s="1" t="s">
-        <v>113</v>
-      </c>
-      <c r="D110" s="1" t="s">
-        <v>127</v>
-      </c>
-      <c r="E110" s="1" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="111" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A111" s="1" t="s">
-        <v>130</v>
-      </c>
-      <c r="B111" s="1" t="s">
-        <v>115</v>
-      </c>
-      <c r="C111" s="1" t="s">
-        <v>113</v>
-      </c>
-      <c r="D111" s="1" t="s">
-        <v>127</v>
-      </c>
-      <c r="E111" s="1" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="112" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A112" s="1" t="s">
-        <v>131</v>
-      </c>
-      <c r="B112" s="1" t="s">
-        <v>119</v>
-      </c>
-      <c r="C112" s="1" t="s">
-        <v>113</v>
-      </c>
-      <c r="D112" s="1" t="s">
-        <v>127</v>
-      </c>
-      <c r="E112" s="1" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="113" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A113" s="1" t="s">
-        <v>132</v>
-      </c>
-      <c r="B113" s="1" t="s">
-        <v>133</v>
-      </c>
-      <c r="C113" s="1" t="s">
-        <v>113</v>
-      </c>
-      <c r="D113" s="1" t="s">
-        <v>127</v>
-      </c>
-      <c r="E113" s="1" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="114" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A114" s="1" t="s">
-        <v>134</v>
-      </c>
-      <c r="B114" s="1" t="s">
-        <v>135</v>
-      </c>
-      <c r="C114" s="1" t="s">
-        <v>113</v>
-      </c>
-      <c r="D114" s="1" t="s">
-        <v>127</v>
-      </c>
-      <c r="E114" s="1" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="115" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A115" s="1" t="s">
-        <v>136</v>
-      </c>
-      <c r="B115" s="1" t="s">
-        <v>137</v>
-      </c>
-      <c r="C115" s="1" t="s">
-        <v>113</v>
-      </c>
-      <c r="D115" s="1" t="s">
-        <v>127</v>
-      </c>
-      <c r="E115" s="1" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="116" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A116" s="1" t="s">
-        <v>138</v>
-      </c>
-      <c r="B116" s="1" t="s">
-        <v>117</v>
-      </c>
-      <c r="C116" s="1" t="s">
-        <v>113</v>
-      </c>
-      <c r="D116" s="1" t="s">
-        <v>127</v>
-      </c>
-      <c r="E116" s="1" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="117" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A117" s="1" t="s">
-        <v>139</v>
-      </c>
-      <c r="B117" s="1" t="s">
-        <v>124</v>
-      </c>
-      <c r="C117" s="1" t="s">
-        <v>113</v>
-      </c>
-      <c r="D117" s="1" t="s">
-        <v>127</v>
-      </c>
-      <c r="E117" s="1" t="s">
-        <v>128</v>
       </c>
     </row>
   </sheetData>

--- a/catalogo2.xlsx
+++ b/catalogo2.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\192.168.105.8\Backup_Prin\Analisis Carteras\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\O830601\Documents\Analisis Carteras\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{47F4EBDF-63D1-46AA-8005-DC3DCBA58463}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{55B826DF-219E-48E7-8603-9E5E80092C5F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-51720" yWindow="990" windowWidth="51840" windowHeight="21240" xr2:uid="{73F9D008-079A-45D1-9B22-3994DC30822A}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="515" uniqueCount="113">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="595" uniqueCount="142">
   <si>
     <t>AGG</t>
   </si>
@@ -366,6 +366,93 @@
   </si>
   <si>
     <t>FLOA</t>
+  </si>
+  <si>
+    <t>HSBCDOL</t>
+  </si>
+  <si>
+    <t>BNF</t>
+  </si>
+  <si>
+    <t>Acciones de Sociedades de Inversion</t>
+  </si>
+  <si>
+    <t>NTEDLS+</t>
+  </si>
+  <si>
+    <t>FF</t>
+  </si>
+  <si>
+    <t>PRGLOB</t>
+  </si>
+  <si>
+    <t>FFR</t>
+  </si>
+  <si>
+    <t>SCOTDL+</t>
+  </si>
+  <si>
+    <t>C1E</t>
+  </si>
+  <si>
+    <t>SCOTDOL</t>
+  </si>
+  <si>
+    <t>SURUSD</t>
+  </si>
+  <si>
+    <t>BOE</t>
+  </si>
+  <si>
+    <t>PRINHYD</t>
+  </si>
+  <si>
+    <t>FFX</t>
+  </si>
+  <si>
+    <t>Acciones de Sociedades de Inversion de Instrumentos de Deuda</t>
+  </si>
+  <si>
+    <t>NTEINT+</t>
+  </si>
+  <si>
+    <t>Mercado de Capitales Extranjero</t>
+  </si>
+  <si>
+    <t>Renta Variable Internacional</t>
+  </si>
+  <si>
+    <t>NTEUSA</t>
+  </si>
+  <si>
+    <t>NTEUSA+</t>
+  </si>
+  <si>
+    <t>SCOTGLO</t>
+  </si>
+  <si>
+    <t>SURGLOB</t>
+  </si>
+  <si>
+    <t>BOE0</t>
+  </si>
+  <si>
+    <t>BLKINT1</t>
+  </si>
+  <si>
+    <t>M0-A</t>
+  </si>
+  <si>
+    <t>FT-GLOB</t>
+  </si>
+  <si>
+    <t>BE</t>
+  </si>
+  <si>
+    <t>PEMERGE</t>
+  </si>
+  <si>
+    <t>PRINFUS</t>
   </si>
   <si>
     <t>SDHMX</t>
@@ -756,10 +843,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A8A281E5-4349-493B-BC18-08FC9C71D1AC}">
-  <dimension ref="A1:E103"/>
+  <dimension ref="A1:E119"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A48" workbookViewId="0">
-      <selection activeCell="C71" sqref="C71"/>
+    <sheetView tabSelected="1" topLeftCell="A93" workbookViewId="0">
+      <selection activeCell="A99" sqref="A99"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2486,10 +2573,10 @@
         <v>111</v>
       </c>
       <c r="B102" s="1" t="s">
-        <v>6</v>
+        <v>112</v>
       </c>
       <c r="C102" s="1" t="s">
-        <v>2</v>
+        <v>113</v>
       </c>
       <c r="D102" s="1" t="s">
         <v>3</v>
@@ -2500,18 +2587,290 @@
     </row>
     <row r="103" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A103" s="1" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="B103" s="1" t="s">
-        <v>6</v>
+        <v>115</v>
       </c>
       <c r="C103" s="1" t="s">
-        <v>2</v>
+        <v>113</v>
       </c>
       <c r="D103" s="1" t="s">
         <v>3</v>
       </c>
       <c r="E103" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="104" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A104" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="B104" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="C104" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="D104" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E104" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="105" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A105" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="B105" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="C105" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="D105" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E105" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="106" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A106" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="B106" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="C106" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="D106" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E106" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="107" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A107" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="B107" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="C107" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="D107" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E107" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="108" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A108" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="B108" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="C108" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="D108" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E108" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="109" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A109" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="B109" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="C109" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="D109" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="E109" s="1" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="110" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A110" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="B110" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="C110" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="D110" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="E110" s="1" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="111" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A111" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="B111" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="C111" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="D111" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="E111" s="1" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="112" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A112" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="B112" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="C112" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="D112" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="E112" s="1" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="113" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A113" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="B113" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="C113" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="D113" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="E113" s="1" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="114" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A114" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="B114" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="C114" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="D114" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="E114" s="1" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="115" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A115" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="B115" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="C115" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="D115" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="E115" s="1" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="116" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A116" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="B116" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="C116" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="D116" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="E116" s="1" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="117" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A117" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="B117" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="C117" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="D117" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="E117" s="1" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="118" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A118" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="B118" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C118" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D118" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E118" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="119" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A119" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="B119" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C119" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D119" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E119" s="1" t="s">
         <v>4</v>
       </c>
     </row>
